--- a/01_Analise/b01_02_requisitos.xlsx
+++ b/01_Analise/b01_02_requisitos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisc\Desktop\ProjetoFinal_CaptureTheFlagMastermind\01_Analise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisc\Desktop\Faculdade\ProjetoFinal\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9581F4C4-E8ED-4E5D-968F-4FED780AD7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4FEB31-B49B-4087-97B7-69D70D30C7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos - Funcoes do Sistema" sheetId="1" r:id="rId1"/>
@@ -499,6 +499,9 @@
     <t>Reproduzir sons adequados, tanto ao infligir como ao receber danos (inimigo)</t>
   </si>
   <si>
+    <t>Rerproduzir sons adequados, tanto ao infligir como ao receber danos (jogador)</t>
+  </si>
+  <si>
     <t>Incremar a reputação consoante o tempo e os inimigos derrotados no jogo</t>
   </si>
   <si>
@@ -521,9 +524,6 @@
   </si>
   <si>
     <t>As naves deve estar adequado ao tema do jogo</t>
-  </si>
-  <si>
-    <t>Reproduzir sons adequados, tanto ao infligir como ao receber danos (jogador)</t>
   </si>
 </sst>
 </file>
@@ -1641,9 +1641,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1663,6 +1660,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2743,8 +2743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2896,7 +2896,7 @@
       <c r="D13" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="97"/>
+      <c r="E13" s="96"/>
       <c r="F13" s="80"/>
     </row>
     <row r="14" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2915,7 +2915,7 @@
       <c r="D15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="E15" s="97" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       <c r="D27" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="98" t="s">
+      <c r="E27" s="97" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
         <v>41</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>40</v>
@@ -3109,7 +3109,7 @@
       <c r="D31" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="99"/>
+      <c r="E31" s="98"/>
     </row>
     <row r="32" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="59"/>
@@ -3128,7 +3128,7 @@
       <c r="D33" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="100" t="s">
+      <c r="E33" s="99" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
         <v>49</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D36" s="47" t="s">
         <v>11</v>
@@ -3178,7 +3178,7 @@
       <c r="D37" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="99"/>
+      <c r="E37" s="98"/>
     </row>
     <row r="38" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="60"/>
@@ -3191,12 +3191,12 @@
         <v>52</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="101" t="s">
+      <c r="E39" s="100" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3206,12 +3206,12 @@
         <v>54</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="102"/>
+      <c r="E40" s="101"/>
       <c r="F40" s="85"/>
     </row>
     <row r="41" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3220,12 +3220,12 @@
         <v>55</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="102"/>
+      <c r="E41" s="101"/>
     </row>
     <row r="42" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27"/>
@@ -3233,12 +3233,12 @@
         <v>56</v>
       </c>
       <c r="C42" s="61" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="103"/>
+      <c r="E42" s="102"/>
     </row>
     <row r="43" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27"/>
@@ -3312,7 +3312,7 @@
       <c r="D48" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="96"/>
+      <c r="E48" s="103"/>
     </row>
     <row r="49" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
@@ -3615,7 +3615,7 @@
     <row r="28" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
       <c r="C28" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D28" s="68"/>
     </row>
@@ -3631,7 +3631,7 @@
     <row r="30" spans="2:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="88"/>
       <c r="C30" s="91" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D30" s="90"/>
     </row>
@@ -3647,7 +3647,7 @@
     <row r="32" spans="2:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="91"/>
       <c r="C32" s="91" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D32" s="92"/>
     </row>
@@ -3695,7 +3695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
